--- a/database_excel_files/Enquiry.xlsx
+++ b/database_excel_files/Enquiry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9151A8E-EF5A-4B95-A38A-4379003AF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="984" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -48,40 +48,70 @@
     <t>isRepliedByStaff</t>
   </si>
   <si>
+    <t>enquiry2</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>Reply 2</t>
+  </si>
+  <si>
+    <t>Staff Name</t>
+  </si>
+  <si>
     <t>enquiry1</t>
   </si>
   <si>
-    <t>Subject 1</t>
-  </si>
-  <si>
-    <t>Description 1</t>
-  </si>
-  <si>
-    <t>enquiry2</t>
-  </si>
-  <si>
-    <t>Subject 2</t>
-  </si>
-  <si>
-    <t>Description 2</t>
-  </si>
-  <si>
-    <t>Reply 2</t>
-  </si>
-  <si>
-    <t>Staff Name</t>
-  </si>
-  <si>
-    <t>Updated Subject 1</t>
-  </si>
-  <si>
-    <t>Updated Description 1</t>
-  </si>
-  <si>
-    <t>Updated Reply 1</t>
-  </si>
-  <si>
-    <t>Updated Staff Name</t>
+    <t>Bird bird</t>
+  </si>
+  <si>
+    <t>Is A Bird</t>
+  </si>
+  <si>
+    <t>h11ello</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>aasdsasd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>aasdsazzzsd</t>
+  </si>
+  <si>
+    <t>asdfasfdhghfghfhd</t>
+  </si>
+  <si>
+    <t>E1000</t>
+  </si>
+  <si>
+    <t>E100120</t>
+  </si>
+  <si>
+    <t>NO haha</t>
+  </si>
+  <si>
+    <t>asdsadsa</t>
   </si>
 </sst>
 </file>
@@ -400,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,49 +469,463 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="G2" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G3" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G2" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="D4" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G4" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G3" t="b" s="0">
+      <c r="D5" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G5" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D7" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G7" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D8" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G8" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G9" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D10" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G10" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D11" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G11" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D12" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G12" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D13" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G13" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D14" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G14" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D15" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G15" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D16" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G16" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D17" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G17" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D18" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G18" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D19" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G19" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D20" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G20" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D21" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G21" t="b" s="0">
         <v>1</v>
       </c>
     </row>

--- a/database_excel_files/Enquiry.xlsx
+++ b/database_excel_files/Enquiry.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>asdsadsa</t>
+  </si>
+  <si>
+    <t>totalSlots</t>
+  </si>
+  <si>
+    <t>campId</t>
+  </si>
+  <si>
+    <t>asdfsdf</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -468,6 +477,9 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
@@ -491,6 +503,9 @@
       <c r="G2" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H2" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
@@ -514,6 +529,9 @@
       <c r="G3" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H3" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -537,6 +555,9 @@
       <c r="G4" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H4" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -560,6 +581,9 @@
       <c r="G5" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H5" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -583,6 +607,9 @@
       <c r="G6" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H6" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -606,6 +633,9 @@
       <c r="G7" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H7" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -629,6 +659,9 @@
       <c r="G8" t="b" s="0">
         <v>1</v>
       </c>
+      <c r="H8" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
@@ -652,6 +685,9 @@
       <c r="G9" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H9" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
@@ -675,6 +711,9 @@
       <c r="G10" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H10" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
@@ -698,6 +737,9 @@
       <c r="G11" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H11" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
@@ -721,6 +763,9 @@
       <c r="G12" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H12" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
@@ -744,6 +789,9 @@
       <c r="G13" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H13" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
@@ -767,6 +815,9 @@
       <c r="G14" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H14" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
@@ -790,6 +841,9 @@
       <c r="G15" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H15" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
@@ -813,6 +867,9 @@
       <c r="G16" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H16" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
@@ -836,6 +893,9 @@
       <c r="G17" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H17" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
@@ -859,6 +919,9 @@
       <c r="G18" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H18" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
@@ -882,6 +945,9 @@
       <c r="G19" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H19" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -905,6 +971,9 @@
       <c r="G20" t="b" s="0">
         <v>0</v>
       </c>
+      <c r="H20" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -927,6 +996,9 @@
       </c>
       <c r="G21" t="b" s="0">
         <v>1</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
